--- a/transformacion/staging/depurado/fact_actividades_estrategias_depurado.xlsx
+++ b/transformacion/staging/depurado/fact_actividades_estrategias_depurado.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminstrador\Documents\3 - Ave Fenix\Propuesta\SED\transformacion\staging\depurado\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9653FDAF-335B-49E8-91B1-57337FD355C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -260,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,21 +318,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +362,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,7 +396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -445,10 +430,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,20 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -734,7 +712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -784,7 +762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -834,7 +812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -884,7 +862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1</v>
       </c>
@@ -934,7 +912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>2</v>
       </c>
@@ -984,7 +962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1034,7 +1012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1084,7 +1062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1134,7 +1112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1184,7 +1162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1234,7 +1212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1284,7 +1262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1334,7 +1312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1384,7 +1362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1434,7 +1412,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1484,7 +1462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1534,7 +1512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1584,7 +1562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1634,7 +1612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1684,7 +1662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1734,7 +1712,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1784,7 +1762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1834,7 +1812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1884,7 +1862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1934,7 +1912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1984,7 +1962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2034,7 +2012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2084,7 +2062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2134,7 +2112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2184,7 +2162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2234,7 +2212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2284,7 +2262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2334,7 +2312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2384,7 +2362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2434,7 +2412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>5</v>
       </c>
@@ -2484,7 +2462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2534,7 +2512,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2584,7 +2562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2634,7 +2612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2684,7 +2662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2734,7 +2712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2784,7 +2762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>2</v>
       </c>

--- a/transformacion/staging/depurado/fact_actividades_estrategias_depurado.xlsx
+++ b/transformacion/staging/depurado/fact_actividades_estrategias_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="76">
   <si>
     <t>N°</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Nombre_Proyecto</t>
@@ -606,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,31 +667,37 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -694,48 +706,54 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -744,48 +762,54 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -794,48 +818,54 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -844,48 +874,54 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>60</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -894,48 +930,54 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -944,48 +986,54 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -994,48 +1042,54 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1044,48 +1098,54 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1094,48 +1154,54 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1144,48 +1210,54 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1194,48 +1266,54 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1244,48 +1322,54 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1294,48 +1378,54 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1344,48 +1434,54 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1394,48 +1490,54 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1444,48 +1546,54 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1494,48 +1602,54 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1544,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1594,48 +1714,54 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1644,48 +1770,54 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1694,48 +1826,54 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1744,48 +1882,54 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>63</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1794,48 +1938,54 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1844,48 +1994,54 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1894,48 +2050,54 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1944,48 +2106,54 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1994,48 +2162,54 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2044,48 +2218,54 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>64</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2094,48 +2274,54 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>65</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2144,48 +2330,54 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>65</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2194,48 +2386,54 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2244,49 +2442,55 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
-      </c>
-      <c r="P33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>38</v>
-      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -2294,48 +2498,54 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2344,48 +2554,54 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
-      </c>
-      <c r="P35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2394,48 +2610,54 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2444,98 +2666,110 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" t="s">
         <v>57</v>
       </c>
-      <c r="N37" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" t="s">
-        <v>55</v>
-      </c>
       <c r="M38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" t="s">
         <v>57</v>
       </c>
-      <c r="N38" t="s">
-        <v>55</v>
-      </c>
       <c r="O38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2544,48 +2778,54 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M39" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" t="s">
         <v>57</v>
       </c>
-      <c r="N39" t="s">
-        <v>55</v>
-      </c>
       <c r="O39" t="s">
-        <v>65</v>
-      </c>
-      <c r="P39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2594,48 +2834,54 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" t="s">
         <v>57</v>
       </c>
-      <c r="N40" t="s">
-        <v>55</v>
-      </c>
       <c r="O40" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2644,48 +2890,54 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M41" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" t="s">
         <v>57</v>
       </c>
-      <c r="N41" t="s">
-        <v>55</v>
-      </c>
       <c r="O41" t="s">
-        <v>65</v>
-      </c>
-      <c r="P41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2694,48 +2946,54 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M42" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" t="s">
         <v>57</v>
       </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
       <c r="O42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2744,48 +3002,54 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>68</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2794,22 +3058,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O44" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
